--- a/已完成-初始数据/无疑问/layout初始数据 -select.xlsx
+++ b/已完成-初始数据/无疑问/layout初始数据 -select.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xm\段成伟\已完成-初始数据\无疑问\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBC\home\已完成-初始数据\无疑问\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -863,7 +863,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
